--- a/USO/USO.xlsx
+++ b/USO/USO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Python Project\USO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40845A80-1641-4D87-90C6-C9A24E8F38C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8633ED6C-0B9C-4732-A49B-21A7E11A9DA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1635" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0D8A3644-4933-41C8-B963-906C77681E3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{0D8A3644-4933-41C8-B963-906C77681E3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -988,33 +988,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1034,19 +1013,21 @@
   <volType type="realTimeData">
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 14:41:08</v>
+        <v>Updated at 19:13:48</v>
         <stp/>
         <stp>{E2539121-A9E5-4527-9D66-5AF82ACB56B4}_x0000_</stp>
         <tr r="D1" s="1"/>
       </tp>
+    </main>
+    <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 14:41:07</v>
+        <v>Updated at 19:13:48</v>
         <stp/>
         <stp>{C1C5E63D-86F4-44FE-B4D9-79FFEE473EDD}_x0000_</stp>
         <tr r="B1" s="1"/>
       </tp>
       <tp t="s">
-        <v>Updated at 14:41:08</v>
+        <v>Updated at 19:13:47</v>
         <stp/>
         <stp>{11C02487-6ACD-4D9B-BFC0-E0D7CBE741E0}_x0000_</stp>
         <tr r="A1" s="2"/>
@@ -15642,88 +15623,7 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="12">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
+  <chartFormats count="3">
     <chartFormat chart="3" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -16078,11 +15978,11 @@
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="str">
         <f>_xll.RHistory("USO",".Timestamp;.Close","START:01-Mar-2020 END:18-Dec-2020 INTERVAL:1D",,"TSREPEAT:NO CH:Fd",B2)</f>
-        <v>Updated at 14:41:07</v>
+        <v>Updated at 19:13:48</v>
       </c>
       <c r="D1" t="str">
         <f>_xll.RHistory("USO","NAV.Timestamp;NAV.Value","START:01-Mar-2020 END:18-Dec-2020 INTERVAL:1D",,"TSREPEAT:NO CH:Fd",D2)</f>
-        <v>Updated at 14:41:08</v>
+        <v>Updated at 19:13:48</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -19817,7 +19717,7 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>_xll.RHistory("2330.TW;TSM;TWD=",".Timestamp;.Close;.Open","START:01-Jan-2020 END:19-Dec-2020 INTERVAL:1D",,"TSREPEAT:NO CH:IN;Fd",B2)</f>
-        <v>Updated at 14:41:08</v>
+        <v>Updated at 19:13:47</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -25574,7 +25474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BADB82-0C15-470C-9881-83106F52F91A}">
   <dimension ref="A3:D223"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -28691,8 +28591,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AC232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28717,7 +28617,7 @@
     <col min="19" max="19" width="15.5703125" style="35" customWidth="1"/>
     <col min="20" max="20" width="15.42578125" style="35" customWidth="1"/>
     <col min="21" max="21" width="19" style="35" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" style="28" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" style="28" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="19.5703125" style="37" customWidth="1"/>
     <col min="24" max="24" width="10.5703125" style="37" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18.140625" style="37" customWidth="1"/>
